--- a/student-service-master/doc/log/log_201608040101_xumengqi.xlsx
+++ b/student-service-master/doc/log/log_201608040101_xumengqi.xlsx
@@ -123,12 +123,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -473,6 +474,9 @@
       <c r="A4" s="1">
         <v>43237</v>
       </c>
+      <c r="B4" s="3">
+        <v>0.79166666666666663</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/student-service-master/doc/log/log_201608040101_xumengqi.xlsx
+++ b/student-service-master/doc/log/log_201608040101_xumengqi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t xml:space="preserve"> 基本实现，还未完成测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18：00-21：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1實現原工程的實體</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本完成，但是還有一些的配置問題</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -474,8 +486,14 @@
       <c r="A4" s="1">
         <v>43237</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.79166666666666663</v>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/student-service-master/doc/log/log_201608040101_xumengqi.xlsx
+++ b/student-service-master/doc/log/log_201608040101_xumengqi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>基本完成，但是還有一些的配置問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:00-6:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service的具体test 的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本完成了service 的部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -494,6 +506,20 @@
       </c>
       <c r="D4" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/student-service-master/doc/log/log_201608040101_xumengqi.xlsx
+++ b/student-service-master/doc/log/log_201608040101_xumengqi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,154 @@
   </si>
   <si>
     <t>基本完成了service 的部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18：00-21：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习spring 的Aop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解Aop的工作机制，看了一些小的例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19：00-21：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习spring 的Dao篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从认真看了Dao系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：00-6：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解查阅学习json文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从网上学习了一系列的json文件，了解他的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18：00-21：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在数据分析的工程里面实现json的插入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件实现了一小部分，还有后续问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18：00-21：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习spring里面的日志机制学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上找了一部分资料学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：00-6：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aop里面的代理工厂运行实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成部分的内容，但是还有部分机制不是很明白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目自己负责的web方面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页面的jsp完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js部分完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js的机制EXT还不是很懂很了解，工作缓慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：00-6：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习EXT.js的工作机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容较多还没有写完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19：00-21：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19：00-21：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看完EXT.js的工作机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成自己项目的js文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件已经完成，但是有很多的bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现运行项目页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中的有些部门的架构还有问题，项目运行不来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组成员的帮助下，项目页面运行出来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -520,6 +668,188 @@
       </c>
       <c r="D5" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43241</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43243</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43244</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43246</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43249</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43253</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43254</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43255</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43259</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>43261</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43265</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/student-service-master/doc/log/log_201608040101_xumengqi.xlsx
+++ b/student-service-master/doc/log/log_201608040101_xumengqi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +252,18 @@
   </si>
   <si>
     <t>小组成员的帮助下，项目页面运行出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00-14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改出来错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json数据与modal模块的对应</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -850,6 +862,20 @@
       </c>
       <c r="D18" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43266</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/student-service-master/doc/log/log_201608040101_xumengqi.xlsx
+++ b/student-service-master/doc/log/log_201608040101_xumengqi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,27 +83,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1實現原工程的實體</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:00-6:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service的具体test 的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本完成了service 的部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>18：00-21：00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1實現原工程的實體</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本完成，但是還有一些的配置問題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:00-6:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>service的具体test 的实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本完成了service 的部分</t>
+    <t>学习spring 的Aop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19：00-21：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习spring 的Dao篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：00-6：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解查阅学习json文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -111,7 +127,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习spring 的Aop</t>
+    <t>在数据分析的工程里面实现json的插入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18：00-21：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习spring里面的日志机制学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：00-6：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aop里面的代理工厂运行实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目自己负责的web方面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js部分完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：00-6：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习EXT.js的工作机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19：00-21：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19：00-21：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看完EXT.js的工作机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成自己项目的js文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现运行项目页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00-14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改出来错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18：00-21：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生服务项目的实体，数据库的连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪数据的实现测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚开始出现不熟的现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本完成表的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库的连接已经比较顺利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置时还有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本没有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -119,23 +247,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19：00-21：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习spring 的Dao篇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从认真看了Dao系列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2：00-6：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解查阅学习json文件</t>
+    <t>部分完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dao的系列基本完成，但是其中细节的机制还有问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -143,11 +259,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18：00-21：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在数据分析的工程里面实现json的插入</t>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -155,23 +267,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18：00-21：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习spring里面的日志机制学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网上找了一部分资料学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2：00-6：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aop里面的代理工厂运行实现</t>
+  </si>
+  <si>
+    <t>内容较多还没有写完</t>
+  </si>
+  <si>
+    <t>看完部分内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -179,63 +281,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目自己负责的web方面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主页面的jsp完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>js部分完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>js的机制EXT还不是很懂很了解，工作缓慢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2：00-6：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习EXT.js的工作机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容较多还没有写完</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19：00-21：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19：00-21：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看完EXT.js的工作机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成自己项目的js文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文件已经完成，但是有很多的bug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18:00-21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现运行项目页面</t>
+    <t>但是没有具体的代码实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -243,27 +305,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18:00-23:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小组成员的帮助下，项目页面运行出来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12:00-14:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>改出来错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>json数据与modal模块的对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -606,7 +680,7 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="36.58203125" customWidth="1"/>
     <col min="4" max="4" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="38.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -639,6 +713,9 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -653,229 +730,297 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43237</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>43227</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43240</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
+        <v>43237</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43241</v>
+        <v>43240</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43243</v>
+        <v>43241</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <v>43243</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>43244</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43246</v>
-      </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>43249</v>
+        <v>43246</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <v>43249</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>43252</v>
       </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43253</v>
-      </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43254</v>
+        <v>43253</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43255</v>
+        <v>43254</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43256</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>43255</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>43259</v>
       </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>43261</v>
       </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>43265</v>
       </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>43266</v>
       </c>
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/student-service-master/doc/log/log_201608040101_xumengqi.xlsx
+++ b/student-service-master/doc/log/log_201608040101_xumengqi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,6 +338,22 @@
   </si>
   <si>
     <t>没有完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：00-6：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于js的简单的语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -753,273 +769,290 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>43237</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>43230</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43240</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
+        <v>43237</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>43241</v>
+        <v>43240</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>43243</v>
+        <v>43241</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>56</v>
       </c>
       <c r="E8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43243</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>43244</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>59</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43246</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <v>43246</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>43249</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>73</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="13" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>43252</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>74</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43253</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>43254</v>
+        <v>43253</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43255</v>
+        <v>43254</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>43256</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>43255</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>43259</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
+        <v>43256</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>43261</v>
+        <v>43259</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>43265</v>
+        <v>43261</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
+        <v>43265</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>43266</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>44</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>77</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>72</v>
       </c>
     </row>
